--- a/RMI/RMI/media/Reporte/PERFIL_DEL_INSTRUCTOR.xlsx
+++ b/RMI/RMI/media/Reporte/PERFIL_DEL_INSTRUCTOR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO-ASUS\Documents\DOCUMENTOS DAVID C++\SENA\CONTRATO\Aplicativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO-ASUS\Documents\GitHub\Reporte_Mensual\RMI\RMI\media\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>CODIGO</t>
   </si>
@@ -2416,6 +2416,9 @@
 -Manejar herramientas informáticas asociadas al área objeto de la formación.
 </t>
     </r>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -2777,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F31"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2796,12 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>524109</v>
       </c>
@@ -2821,7 +2829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>935175</v>
       </c>
@@ -2835,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>223118</v>
       </c>
@@ -2849,7 +2857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>836114</v>
       </c>
@@ -2863,7 +2871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>836222</v>
       </c>
@@ -2877,7 +2885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>841105</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>921206</v>
       </c>
@@ -2905,7 +2913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>821226</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>821222</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>228183</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>621201</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>822202</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>417401</v>
       </c>
